--- a/written/presentation/excels/chirpErr0degPhase.xlsx
+++ b/written/presentation/excels/chirpErr0degPhase.xlsx
@@ -69,7 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,214 +1338,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>-109.39633000000001</c:v>
+                  <c:v>-133.820919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-109.39633000000001</c:v>
+                  <c:v>-133.820919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.810295000000004</c:v>
+                  <c:v>-134.73647299999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.810295000000004</c:v>
+                  <c:v>-134.73647299999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.488841000000001</c:v>
+                  <c:v>-134.31814700000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.488841000000001</c:v>
+                  <c:v>-134.31814700000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8693840000000002</c:v>
+                  <c:v>-133.598353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8693840000000002</c:v>
+                  <c:v>-133.598353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.018301999999998</c:v>
+                  <c:v>-136.02730500000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.018301999999998</c:v>
+                  <c:v>-136.02730500000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.674232</c:v>
+                  <c:v>-136.59365299999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.674232</c:v>
+                  <c:v>-136.59365299999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.655133999999997</c:v>
+                  <c:v>-136.02829600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.655133999999997</c:v>
+                  <c:v>-136.02829600000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.439838999999999</c:v>
+                  <c:v>-136.39474000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.439838999999999</c:v>
+                  <c:v>-136.39474000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.182259999999999</c:v>
+                  <c:v>-135.53109000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.182259999999999</c:v>
+                  <c:v>-135.53109000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.785502999999999</c:v>
+                  <c:v>-136.35873000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.785502999999999</c:v>
+                  <c:v>-136.35873000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.239362999999997</c:v>
+                  <c:v>-135.695921</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.239362999999997</c:v>
+                  <c:v>-135.695921</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.596466999999997</c:v>
+                  <c:v>-134.702776</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35.596466999999997</c:v>
+                  <c:v>-134.702776</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-91.984393999999995</c:v>
+                  <c:v>-133.89474899999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-91.984393999999995</c:v>
+                  <c:v>-133.89474899999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-16.332508000000001</c:v>
+                  <c:v>-134.680409</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-16.332508000000001</c:v>
+                  <c:v>-134.680409</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.930091000000001</c:v>
+                  <c:v>-133.62924899999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.930091000000001</c:v>
+                  <c:v>-133.62924899999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.570167999999999</c:v>
+                  <c:v>-133.63900000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.570167999999999</c:v>
+                  <c:v>-133.63900000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-127.991184</c:v>
+                  <c:v>-135.11073099999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-127.991184</c:v>
+                  <c:v>-135.11073099999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.245959999999997</c:v>
+                  <c:v>-135.07722200000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34.245959999999997</c:v>
+                  <c:v>-135.07722200000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.141499</c:v>
+                  <c:v>-134.79757799999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>26.141499</c:v>
+                  <c:v>-134.79757799999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31.464918000000001</c:v>
+                  <c:v>-135.69241199999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.464918000000001</c:v>
+                  <c:v>-135.69241199999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-124.145377</c:v>
+                  <c:v>-135.46428399999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-124.145377</c:v>
+                  <c:v>-135.46428399999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-17.461905999999999</c:v>
+                  <c:v>-138.34848099999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-17.461905999999999</c:v>
+                  <c:v>-138.34848099999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21.362444</c:v>
+                  <c:v>-136.91260500000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21.362444</c:v>
+                  <c:v>-136.91260500000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-125.83541099999999</c:v>
+                  <c:v>-134.84062700000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-125.83541099999999</c:v>
+                  <c:v>-134.84062700000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>34.608593999999997</c:v>
+                  <c:v>-133.50832399999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34.608593999999997</c:v>
+                  <c:v>-133.50832399999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>27.627061999999999</c:v>
+                  <c:v>-134.47243</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.627061999999999</c:v>
+                  <c:v>-134.47243</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>29.295041999999999</c:v>
+                  <c:v>-133.69721999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>29.295041999999999</c:v>
+                  <c:v>-133.69721999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.274800999999997</c:v>
+                  <c:v>-133.75818000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>34.274800999999997</c:v>
+                  <c:v>-133.75818000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>34.435550999999997</c:v>
+                  <c:v>-136.358475</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>34.435550999999997</c:v>
+                  <c:v>-136.358475</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>36.025488000000003</c:v>
+                  <c:v>-135.41369599999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>36.025488000000003</c:v>
+                  <c:v>-135.41369599999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>33.068890000000003</c:v>
+                  <c:v>-135.48308299999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>33.068890000000003</c:v>
+                  <c:v>-135.48308299999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.570404</c:v>
+                  <c:v>-135.12549200000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15.570404</c:v>
+                  <c:v>-135.12549200000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-148.336536</c:v>
+                  <c:v>41.378706000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-148.336536</c:v>
+                  <c:v>41.378706000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-146.986009</c:v>
+                  <c:v>34.106008000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-146.986009</c:v>
+                  <c:v>34.106008000000003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-147.09517</c:v>
+                  <c:v>37.572048000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-147.09517</c:v>
+                  <c:v>37.572048000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,214 +1822,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>-3.101289</c:v>
+                  <c:v>8.7504349999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.1118389999999998</c:v>
+                  <c:v>10.303303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9277739999999999</c:v>
+                  <c:v>9.9841219999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.7728380000000001</c:v>
+                  <c:v>6.4588049999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.2010019999999999</c:v>
+                  <c:v>7.5859899999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.8984519999999998</c:v>
+                  <c:v>10.339919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.8269580000000003</c:v>
+                  <c:v>8.8314679999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.6646929999999998</c:v>
+                  <c:v>3.4046979999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.0939990000000002</c:v>
+                  <c:v>9.4261999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.4297279999999999</c:v>
+                  <c:v>10.733449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.2675380000000001</c:v>
+                  <c:v>6.5222730000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.9737559999999998</c:v>
+                  <c:v>8.3851870000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.1511100000000001</c:v>
+                  <c:v>12.49737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.4611409999999996</c:v>
+                  <c:v>8.1786030000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5.1449280000000002</c:v>
+                  <c:v>8.7186780000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.0799580000000004</c:v>
+                  <c:v>10.173591999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.228154</c:v>
+                  <c:v>7.9765110000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.3862190000000005</c:v>
+                  <c:v>5.8091379999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.3545170000000004</c:v>
+                  <c:v>8.9965919999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.5370029999999999</c:v>
+                  <c:v>13.905241999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.9095979999999999</c:v>
+                  <c:v>10.061714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.7499520000000004</c:v>
+                  <c:v>8.8354440000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.71793</c:v>
+                  <c:v>6.915057</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-5.4380610000000003</c:v>
+                  <c:v>7.9413470000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.3301910000000001</c:v>
+                  <c:v>8.5748309999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.1533859999999998</c:v>
+                  <c:v>7.7747380000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.5609510000000002</c:v>
+                  <c:v>7.4600910000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.5158909999999999</c:v>
+                  <c:v>5.3535279999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-8.4527570000000001</c:v>
+                  <c:v>7.6701199999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.4051439999999999</c:v>
+                  <c:v>9.48508</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.3604659999999997</c:v>
+                  <c:v>9.2238740000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.0848709999999997</c:v>
+                  <c:v>10.80983</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.1495259999999998</c:v>
+                  <c:v>11.997496</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-8.4365310000000004</c:v>
+                  <c:v>5.7373669999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.0414440000000003</c:v>
+                  <c:v>7.0054749999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.2344290000000004</c:v>
+                  <c:v>11.143724000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.8570469999999997</c:v>
+                  <c:v>7.770829</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.4540379999999999</c:v>
+                  <c:v>8.5556920000000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-4.2773370000000002</c:v>
+                  <c:v>9.635745</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.3169019999999998</c:v>
+                  <c:v>10.699097999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.6475770000000001</c:v>
+                  <c:v>8.3513219999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.3570280000000001</c:v>
+                  <c:v>9.2715150000000008</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.3426049999999998</c:v>
+                  <c:v>8.9540509999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-6.7849449999999996</c:v>
+                  <c:v>11.713172999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2.5054690000000002</c:v>
+                  <c:v>7.9777360000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3.841132</c:v>
+                  <c:v>4.7441329999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-7.1697139999999999</c:v>
+                  <c:v>13.457989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-6.1995170000000002</c:v>
+                  <c:v>8.5604700000000005</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-4.637073</c:v>
+                  <c:v>6.5305150000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-4.1017799999999998</c:v>
+                  <c:v>9.7892759999999992</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-5.189381</c:v>
+                  <c:v>8.0998059999999992</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-6.0861770000000002</c:v>
+                  <c:v>7.4582069999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.3935940000000002</c:v>
+                  <c:v>7.8021370000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-5.3220549999999998</c:v>
+                  <c:v>8.8563120000000009</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3.3360729999999998</c:v>
+                  <c:v>10.540642</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.6465719999999999</c:v>
+                  <c:v>9.0191789999999994</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.0338240000000001</c:v>
+                  <c:v>9.7739049999999992</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.0681050000000001</c:v>
+                  <c:v>9.5604300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-6.3614309999999996</c:v>
+                  <c:v>8.8220720000000004</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-7.3253050000000002</c:v>
+                  <c:v>6.6248579999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-5.2248089999999996</c:v>
+                  <c:v>7.6155879999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-4.111167</c:v>
+                  <c:v>10.110423000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-6.1761920000000003</c:v>
+                  <c:v>7.9137570000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.386924</c:v>
+                  <c:v>9.1187740000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.5441419999999999</c:v>
+                  <c:v>6.7785599999999997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-5.1067010000000002</c:v>
+                  <c:v>7.8152879999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-5.9013520000000002</c:v>
+                  <c:v>10.926542</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-8.9102680000000003</c:v>
+                  <c:v>12.383725999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-6.8890019999999996</c:v>
+                  <c:v>9.4964289999999991</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-4.657699</c:v>
+                  <c:v>7.7397609999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,11 +2044,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-314503088"/>
-        <c:axId val="-314508528"/>
+        <c:axId val="-1622959664"/>
+        <c:axId val="-1622964560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-314503088"/>
+        <c:axId val="-1622959664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -2160,12 +2162,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-314508528"/>
+        <c:crossAx val="-1622964560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-314508528"/>
+        <c:axId val="-1622964560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2285,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-314503088"/>
+        <c:crossAx val="-1622959664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3250,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,11 +3285,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>-109.39633000000001</v>
-      </c>
-      <c r="E2">
-        <v>-3.101289</v>
+      <c r="D2" s="1">
+        <v>-133.820919</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.7504349999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3300,11 +3302,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>-109.39633000000001</v>
-      </c>
-      <c r="E3">
-        <v>-5.1118389999999998</v>
+      <c r="D3" s="1">
+        <v>-133.820919</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.303303</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3317,11 +3319,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>36.810295000000004</v>
-      </c>
-      <c r="E4">
-        <v>-3.9277739999999999</v>
+      <c r="D4" s="1">
+        <v>-134.73647299999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.9841219999999993</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3334,11 +3336,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>36.810295000000004</v>
-      </c>
-      <c r="E5">
-        <v>-3.7728380000000001</v>
+      <c r="D5" s="1">
+        <v>-134.73647299999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.4588049999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3351,11 +3353,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>22.488841000000001</v>
-      </c>
-      <c r="E6">
-        <v>-5.2010019999999999</v>
+      <c r="D6" s="1">
+        <v>-134.31814700000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.5859899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3368,11 +3370,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>22.488841000000001</v>
-      </c>
-      <c r="E7">
-        <v>-5.8984519999999998</v>
+      <c r="D7" s="1">
+        <v>-134.31814700000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10.339919</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3385,11 +3387,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>4.8693840000000002</v>
-      </c>
-      <c r="E8">
-        <v>-4.8269580000000003</v>
+      <c r="D8" s="1">
+        <v>-133.598353</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.8314679999999992</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3402,11 +3404,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>4.8693840000000002</v>
-      </c>
-      <c r="E9">
-        <v>-5.6646929999999998</v>
+      <c r="D9" s="1">
+        <v>-133.598353</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.4046979999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3419,11 +3421,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>38.018301999999998</v>
-      </c>
-      <c r="E10">
-        <v>-5.0939990000000002</v>
+      <c r="D10" s="1">
+        <v>-136.02730500000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.4261999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3436,11 +3438,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>38.018301999999998</v>
-      </c>
-      <c r="E11">
-        <v>-3.4297279999999999</v>
+      <c r="D11" s="1">
+        <v>-136.02730500000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10.733449</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3453,11 +3455,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>30.674232</v>
-      </c>
-      <c r="E12">
-        <v>-4.2675380000000001</v>
+      <c r="D12" s="1">
+        <v>-136.59365299999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.5222730000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3470,11 +3472,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>30.674232</v>
-      </c>
-      <c r="E13">
-        <v>-3.9737559999999998</v>
+      <c r="D13" s="1">
+        <v>-136.59365299999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.3851870000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3487,11 +3489,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>34.655133999999997</v>
-      </c>
-      <c r="E14">
-        <v>-6.1511100000000001</v>
+      <c r="D14" s="1">
+        <v>-136.02829600000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12.49737</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3504,11 +3506,11 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15">
-        <v>34.655133999999997</v>
-      </c>
-      <c r="E15">
-        <v>-4.4611409999999996</v>
+      <c r="D15" s="1">
+        <v>-136.02829600000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8.1786030000000007</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,11 +3523,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>31.439838999999999</v>
-      </c>
-      <c r="E16">
-        <v>-5.1449280000000002</v>
+      <c r="D16" s="1">
+        <v>-136.39474000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.7186780000000006</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3538,11 +3540,11 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17">
-        <v>31.439838999999999</v>
-      </c>
-      <c r="E17">
-        <v>-6.0799580000000004</v>
+      <c r="D17" s="1">
+        <v>-136.39474000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10.173591999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,11 +3557,11 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>37.182259999999999</v>
-      </c>
-      <c r="E18">
-        <v>-5.228154</v>
+      <c r="D18" s="1">
+        <v>-135.53109000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.9765110000000004</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3572,11 +3574,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>37.182259999999999</v>
-      </c>
-      <c r="E19">
-        <v>-8.3862190000000005</v>
+      <c r="D19" s="1">
+        <v>-135.53109000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5.8091379999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3589,11 +3591,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>35.785502999999999</v>
-      </c>
-      <c r="E20">
-        <v>-4.3545170000000004</v>
+      <c r="D20" s="1">
+        <v>-136.35873000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.9965919999999997</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3606,11 +3608,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>35.785502999999999</v>
-      </c>
-      <c r="E21">
-        <v>-2.5370029999999999</v>
+      <c r="D21" s="1">
+        <v>-136.35873000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>13.905241999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3623,11 +3625,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>34.239362999999997</v>
-      </c>
-      <c r="E22">
-        <v>-3.9095979999999999</v>
+      <c r="D22" s="1">
+        <v>-135.695921</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10.061714</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3640,11 +3642,11 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>34.239362999999997</v>
-      </c>
-      <c r="E23">
-        <v>-4.7499520000000004</v>
+      <c r="D23" s="1">
+        <v>-135.695921</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.8354440000000007</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3657,11 +3659,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
-        <v>35.596466999999997</v>
-      </c>
-      <c r="E24">
-        <v>-3.71793</v>
+      <c r="D24" s="1">
+        <v>-134.702776</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.915057</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3674,11 +3676,11 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>35.596466999999997</v>
-      </c>
-      <c r="E25">
-        <v>-5.4380610000000003</v>
+      <c r="D25" s="1">
+        <v>-134.702776</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7.9413470000000004</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3691,11 +3693,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>-91.984393999999995</v>
-      </c>
-      <c r="E26">
-        <v>-6.3301910000000001</v>
+      <c r="D26" s="1">
+        <v>-133.89474899999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8.5748309999999996</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3708,11 +3710,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>-91.984393999999995</v>
-      </c>
-      <c r="E27">
-        <v>-3.1533859999999998</v>
+      <c r="D27" s="1">
+        <v>-133.89474899999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7.7747380000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3725,11 +3727,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>-16.332508000000001</v>
-      </c>
-      <c r="E28">
-        <v>-5.5609510000000002</v>
+      <c r="D28" s="1">
+        <v>-134.680409</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7.4600910000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3742,11 +3744,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <v>-16.332508000000001</v>
-      </c>
-      <c r="E29">
-        <v>-3.5158909999999999</v>
+      <c r="D29" s="1">
+        <v>-134.680409</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5.3535279999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3759,11 +3761,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30">
-        <v>17.930091000000001</v>
-      </c>
-      <c r="E30">
-        <v>-8.4527570000000001</v>
+      <c r="D30" s="1">
+        <v>-133.62924899999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7.6701199999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3776,11 +3778,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>17.930091000000001</v>
-      </c>
-      <c r="E31">
-        <v>-3.4051439999999999</v>
+      <c r="D31" s="1">
+        <v>-133.62924899999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9.48508</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3793,11 +3795,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>25.570167999999999</v>
-      </c>
-      <c r="E32">
-        <v>-6.3604659999999997</v>
+      <c r="D32" s="1">
+        <v>-133.63900000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9.2238740000000004</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3810,11 +3812,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>25.570167999999999</v>
-      </c>
-      <c r="E33">
-        <v>-4.0848709999999997</v>
+      <c r="D33" s="1">
+        <v>-133.63900000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10.80983</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3827,11 +3829,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34">
-        <v>-127.991184</v>
-      </c>
-      <c r="E34">
-        <v>-3.1495259999999998</v>
+      <c r="D34" s="1">
+        <v>-135.11073099999999</v>
+      </c>
+      <c r="E34" s="2">
+        <v>11.997496</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3844,11 +3846,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35">
-        <v>-127.991184</v>
-      </c>
-      <c r="E35">
-        <v>-8.4365310000000004</v>
+      <c r="D35" s="1">
+        <v>-135.11073099999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5.7373669999999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3861,11 +3863,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36">
-        <v>34.245959999999997</v>
-      </c>
-      <c r="E36">
-        <v>-5.0414440000000003</v>
+      <c r="D36" s="1">
+        <v>-135.07722200000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7.0054749999999997</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3878,11 +3880,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>34.245959999999997</v>
-      </c>
-      <c r="E37">
-        <v>-6.2344290000000004</v>
+      <c r="D37" s="1">
+        <v>-135.07722200000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>11.143724000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3895,11 +3897,11 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>26.141499</v>
-      </c>
-      <c r="E38">
-        <v>-4.8570469999999997</v>
+      <c r="D38" s="1">
+        <v>-134.79757799999999</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7.770829</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3912,11 +3914,11 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39">
-        <v>26.141499</v>
-      </c>
-      <c r="E39">
-        <v>-1.4540379999999999</v>
+      <c r="D39" s="1">
+        <v>-134.79757799999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>8.5556920000000005</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3929,11 +3931,11 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>31.464918000000001</v>
-      </c>
-      <c r="E40">
-        <v>-4.2773370000000002</v>
+      <c r="D40" s="1">
+        <v>-135.69241199999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9.635745</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3946,11 +3948,11 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>31.464918000000001</v>
-      </c>
-      <c r="E41">
-        <v>-3.3169019999999998</v>
+      <c r="D41" s="1">
+        <v>-135.69241199999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10.699097999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3963,11 +3965,11 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42">
-        <v>-124.145377</v>
-      </c>
-      <c r="E42">
-        <v>-3.6475770000000001</v>
+      <c r="D42" s="1">
+        <v>-135.46428399999999</v>
+      </c>
+      <c r="E42" s="2">
+        <v>8.3513219999999997</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3980,11 +3982,11 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43">
-        <v>-124.145377</v>
-      </c>
-      <c r="E43">
-        <v>-2.3570280000000001</v>
+      <c r="D43" s="1">
+        <v>-135.46428399999999</v>
+      </c>
+      <c r="E43" s="2">
+        <v>9.2715150000000008</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3997,11 +3999,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44">
-        <v>-17.461905999999999</v>
-      </c>
-      <c r="E44">
-        <v>-3.3426049999999998</v>
+      <c r="D44" s="1">
+        <v>-138.34848099999999</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8.9540509999999998</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4014,11 +4016,11 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45">
-        <v>-17.461905999999999</v>
-      </c>
-      <c r="E45">
-        <v>-6.7849449999999996</v>
+      <c r="D45" s="1">
+        <v>-138.34848099999999</v>
+      </c>
+      <c r="E45" s="2">
+        <v>11.713172999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -4031,11 +4033,11 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46">
-        <v>21.362444</v>
-      </c>
-      <c r="E46">
-        <v>-2.5054690000000002</v>
+      <c r="D46" s="1">
+        <v>-136.91260500000001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7.9777360000000002</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,11 +4050,11 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47">
-        <v>21.362444</v>
-      </c>
-      <c r="E47">
-        <v>-3.841132</v>
+      <c r="D47" s="1">
+        <v>-136.91260500000001</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4.7441329999999997</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4065,11 +4067,11 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48">
-        <v>-125.83541099999999</v>
-      </c>
-      <c r="E48">
-        <v>-7.1697139999999999</v>
+      <c r="D48" s="1">
+        <v>-134.84062700000001</v>
+      </c>
+      <c r="E48" s="2">
+        <v>13.457989</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4082,11 +4084,11 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49">
-        <v>-125.83541099999999</v>
-      </c>
-      <c r="E49">
-        <v>-6.1995170000000002</v>
+      <c r="D49" s="1">
+        <v>-134.84062700000001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8.5604700000000005</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4099,11 +4101,11 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
-        <v>34.608593999999997</v>
-      </c>
-      <c r="E50">
-        <v>-4.637073</v>
+      <c r="D50" s="1">
+        <v>-133.50832399999999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>6.5305150000000003</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -4116,11 +4118,11 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51">
-        <v>34.608593999999997</v>
-      </c>
-      <c r="E51">
-        <v>-4.1017799999999998</v>
+      <c r="D51" s="1">
+        <v>-133.50832399999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9.7892759999999992</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4133,11 +4135,11 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52">
-        <v>27.627061999999999</v>
-      </c>
-      <c r="E52">
-        <v>-5.189381</v>
+      <c r="D52" s="1">
+        <v>-134.47243</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8.0998059999999992</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4150,11 +4152,11 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53">
-        <v>27.627061999999999</v>
-      </c>
-      <c r="E53">
-        <v>-6.0861770000000002</v>
+      <c r="D53" s="1">
+        <v>-134.47243</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7.4582069999999998</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4167,11 +4169,11 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54">
-        <v>29.295041999999999</v>
-      </c>
-      <c r="E54">
-        <v>-6.3935940000000002</v>
+      <c r="D54" s="1">
+        <v>-133.69721999999999</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7.8021370000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4184,11 +4186,11 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55">
-        <v>29.295041999999999</v>
-      </c>
-      <c r="E55">
-        <v>-5.3220549999999998</v>
+      <c r="D55" s="1">
+        <v>-133.69721999999999</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8.8563120000000009</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4201,11 +4203,11 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56">
-        <v>34.274800999999997</v>
-      </c>
-      <c r="E56">
-        <v>-3.3360729999999998</v>
+      <c r="D56" s="1">
+        <v>-133.75818000000001</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10.540642</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -4218,11 +4220,11 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>34.274800999999997</v>
-      </c>
-      <c r="E57">
-        <v>-5.6465719999999999</v>
+      <c r="D57" s="1">
+        <v>-133.75818000000001</v>
+      </c>
+      <c r="E57" s="2">
+        <v>9.0191789999999994</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -4235,11 +4237,11 @@
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="D58">
-        <v>34.435550999999997</v>
-      </c>
-      <c r="E58">
-        <v>-3.0338240000000001</v>
+      <c r="D58" s="1">
+        <v>-136.358475</v>
+      </c>
+      <c r="E58" s="2">
+        <v>9.7739049999999992</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -4252,11 +4254,11 @@
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="D59">
-        <v>34.435550999999997</v>
-      </c>
-      <c r="E59">
-        <v>-4.0681050000000001</v>
+      <c r="D59" s="1">
+        <v>-136.358475</v>
+      </c>
+      <c r="E59" s="2">
+        <v>9.5604300000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4269,11 +4271,11 @@
       <c r="C60">
         <v>0</v>
       </c>
-      <c r="D60">
-        <v>36.025488000000003</v>
-      </c>
-      <c r="E60">
-        <v>-6.3614309999999996</v>
+      <c r="D60" s="1">
+        <v>-135.41369599999999</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8.8220720000000004</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4286,11 +4288,11 @@
       <c r="C61">
         <v>0</v>
       </c>
-      <c r="D61">
-        <v>36.025488000000003</v>
-      </c>
-      <c r="E61">
-        <v>-7.3253050000000002</v>
+      <c r="D61" s="1">
+        <v>-135.41369599999999</v>
+      </c>
+      <c r="E61" s="2">
+        <v>6.6248579999999997</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4303,11 +4305,11 @@
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>33.068890000000003</v>
-      </c>
-      <c r="E62">
-        <v>-5.2248089999999996</v>
+      <c r="D62" s="1">
+        <v>-135.48308299999999</v>
+      </c>
+      <c r="E62" s="2">
+        <v>7.6155879999999998</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4320,11 +4322,11 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63">
-        <v>33.068890000000003</v>
-      </c>
-      <c r="E63">
-        <v>-4.111167</v>
+      <c r="D63" s="1">
+        <v>-135.48308299999999</v>
+      </c>
+      <c r="E63" s="2">
+        <v>10.110423000000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4337,11 +4339,11 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64">
-        <v>15.570404</v>
-      </c>
-      <c r="E64">
-        <v>-6.1761920000000003</v>
+      <c r="D64" s="1">
+        <v>-135.12549200000001</v>
+      </c>
+      <c r="E64" s="2">
+        <v>7.9137570000000004</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -4354,11 +4356,11 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>15.570404</v>
-      </c>
-      <c r="E65">
-        <v>-2.386924</v>
+      <c r="D65" s="1">
+        <v>-135.12549200000001</v>
+      </c>
+      <c r="E65" s="2">
+        <v>9.1187740000000002</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4371,11 +4373,11 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66">
-        <v>-148.336536</v>
-      </c>
-      <c r="E66">
-        <v>-3.5441419999999999</v>
+      <c r="D66" s="1">
+        <v>41.378706000000001</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6.7785599999999997</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -4388,11 +4390,11 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>-148.336536</v>
-      </c>
-      <c r="E67">
-        <v>-5.1067010000000002</v>
+      <c r="D67" s="1">
+        <v>41.378706000000001</v>
+      </c>
+      <c r="E67" s="2">
+        <v>7.8152879999999998</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4405,11 +4407,11 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68">
-        <v>-146.986009</v>
-      </c>
-      <c r="E68">
-        <v>-5.9013520000000002</v>
+      <c r="D68" s="1">
+        <v>34.106008000000003</v>
+      </c>
+      <c r="E68" s="2">
+        <v>10.926542</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4422,11 +4424,11 @@
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="D69">
-        <v>-146.986009</v>
-      </c>
-      <c r="E69">
-        <v>-8.9102680000000003</v>
+      <c r="D69" s="1">
+        <v>34.106008000000003</v>
+      </c>
+      <c r="E69" s="2">
+        <v>12.383725999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4439,11 +4441,11 @@
       <c r="C70">
         <v>0</v>
       </c>
-      <c r="D70">
-        <v>-147.09517</v>
-      </c>
-      <c r="E70">
-        <v>-6.8890019999999996</v>
+      <c r="D70" s="1">
+        <v>37.572048000000002</v>
+      </c>
+      <c r="E70" s="2">
+        <v>9.4964289999999991</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4456,11 +4458,11 @@
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="D71">
-        <v>-147.09517</v>
-      </c>
-      <c r="E71">
-        <v>-4.657699</v>
+      <c r="D71" s="1">
+        <v>37.572048000000002</v>
+      </c>
+      <c r="E71" s="2">
+        <v>7.7397609999999997</v>
       </c>
     </row>
   </sheetData>
